--- a/code_examples/excel_from_python/table_format.xlsx
+++ b/code_examples/excel_from_python/table_format.xlsx
@@ -79,8 +79,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Stock" displayName="Stock" ref="A1:C4" totalsRowCount="1">
-  <autoFilter ref="A1:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Stock" displayName="Stock" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Item"/>
     <tableColumn id="2" name="Units"/>
